--- a/XGBoost/Results/XGB vs RF.xlsx
+++ b/XGBoost/Results/XGB vs RF.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3D12990-D027-488F-AD6A-DBB665EF1F6A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4452880-12F7-420D-A1D3-47A769C5C3BC}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Сравнение моделей" sheetId="1" r:id="rId1"/>
+    <sheet name="Сравнение моделей CV" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="18">
   <si>
     <t>Сезонные модели</t>
   </si>
@@ -139,7 +140,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -162,6 +163,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -444,8 +447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -738,4 +741,390 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB7F979B-623B-4717-B9B1-75ED9900583A}">
+  <dimension ref="A1:M14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8">
+        <v>0.64729999999999999</v>
+      </c>
+      <c r="C3" s="9">
+        <v>0.54900000000000004</v>
+      </c>
+      <c r="D3" s="8">
+        <v>0.41339999999999999</v>
+      </c>
+      <c r="E3" s="9">
+        <v>0.32140000000000002</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="9">
+        <v>0.72299999999999998</v>
+      </c>
+      <c r="K3" s="8">
+        <v>0.53890000000000005</v>
+      </c>
+      <c r="L3" s="9">
+        <v>0.4093</v>
+      </c>
+      <c r="M3" s="8">
+        <v>0.61519999999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="9">
+        <v>0.58640000000000003</v>
+      </c>
+      <c r="C4" s="8">
+        <v>0.56530000000000002</v>
+      </c>
+      <c r="D4" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="E4" s="8">
+        <v>0.4793</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="J4" s="8">
+        <v>0.75309999999999999</v>
+      </c>
+      <c r="K4" s="9">
+        <v>0.5131</v>
+      </c>
+      <c r="L4" s="8">
+        <v>0.42709999999999998</v>
+      </c>
+      <c r="M4" s="9">
+        <v>0.50290000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="6"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="8">
+        <v>469.26740000000001</v>
+      </c>
+      <c r="C8" s="9">
+        <v>43.452300000000001</v>
+      </c>
+      <c r="D8" s="8">
+        <v>28.5808</v>
+      </c>
+      <c r="E8" s="9">
+        <v>30.240200000000002</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J8" s="9">
+        <v>368.55410000000001</v>
+      </c>
+      <c r="K8" s="8">
+        <v>44.422800000000002</v>
+      </c>
+      <c r="L8" s="9">
+        <v>28.781500000000001</v>
+      </c>
+      <c r="M8" s="8">
+        <v>17.1479</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="9">
+        <v>550.21929999999998</v>
+      </c>
+      <c r="C9" s="8">
+        <v>41.878999999999998</v>
+      </c>
+      <c r="D9" s="9">
+        <v>34.108400000000003</v>
+      </c>
+      <c r="E9" s="8">
+        <v>23.203600000000002</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="J9" s="8">
+        <v>328.49810000000002</v>
+      </c>
+      <c r="K9" s="9">
+        <v>46.909799999999997</v>
+      </c>
+      <c r="L9" s="8">
+        <v>27.912099999999999</v>
+      </c>
+      <c r="M9" s="9">
+        <v>22.148700000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="I1:M1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/XGBoost/Results/XGB vs RF.xlsx
+++ b/XGBoost/Results/XGB vs RF.xlsx
@@ -3,13 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4452880-12F7-420D-A1D3-47A769C5C3BC}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73E6324A-95C4-45F9-9190-D8E7089A9510}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Сравнение моделей" sheetId="1" r:id="rId1"/>
-    <sheet name="Сравнение моделей CV" sheetId="2" r:id="rId2"/>
+    <sheet name="Сравнение моделей CV + Valid" sheetId="2" r:id="rId2"/>
+    <sheet name="Сравнение моделей CV" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="19">
   <si>
     <t>Сезонные модели</t>
   </si>
@@ -75,6 +76,9 @@
   </si>
   <si>
     <t>xgb</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -140,7 +144,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -160,11 +164,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -448,7 +471,7 @@
   <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -467,20 +490,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="I1" s="7" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="I1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -747,8 +770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB7F979B-623B-4717-B9B1-75ED9900583A}">
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -757,23 +780,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -814,16 +837,16 @@
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="7">
         <v>0.64729999999999999</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="8">
         <v>0.54900000000000004</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="7">
         <v>0.41339999999999999</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="8">
         <v>0.32140000000000002</v>
       </c>
       <c r="F3" s="1"/>
@@ -832,16 +855,16 @@
       <c r="I3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="9">
+      <c r="J3" s="8">
         <v>0.72299999999999998</v>
       </c>
-      <c r="K3" s="8">
+      <c r="K3" s="7">
         <v>0.53890000000000005</v>
       </c>
-      <c r="L3" s="9">
+      <c r="L3" s="8">
         <v>0.4093</v>
       </c>
-      <c r="M3" s="8">
+      <c r="M3" s="7">
         <v>0.61519999999999997</v>
       </c>
     </row>
@@ -849,16 +872,16 @@
       <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="8">
         <v>0.58640000000000003</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="7">
         <v>0.56530000000000002</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="8">
         <v>0.3</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="7">
         <v>0.4793</v>
       </c>
       <c r="F4" s="1"/>
@@ -867,16 +890,16 @@
       <c r="I4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="J4" s="8">
+      <c r="J4" s="7">
         <v>0.75309999999999999</v>
       </c>
-      <c r="K4" s="9">
+      <c r="K4" s="8">
         <v>0.5131</v>
       </c>
-      <c r="L4" s="8">
+      <c r="L4" s="7">
         <v>0.42709999999999998</v>
       </c>
-      <c r="M4" s="9">
+      <c r="M4" s="8">
         <v>0.50290000000000001</v>
       </c>
     </row>
@@ -949,16 +972,16 @@
       <c r="A8" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="7">
         <v>469.26740000000001</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="8">
         <v>43.452300000000001</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="7">
         <v>28.5808</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="8">
         <v>30.240200000000002</v>
       </c>
       <c r="F8" s="1"/>
@@ -967,16 +990,16 @@
       <c r="I8" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="J8" s="9">
+      <c r="J8" s="8">
         <v>368.55410000000001</v>
       </c>
-      <c r="K8" s="8">
+      <c r="K8" s="7">
         <v>44.422800000000002</v>
       </c>
-      <c r="L8" s="9">
+      <c r="L8" s="8">
         <v>28.781500000000001</v>
       </c>
-      <c r="M8" s="8">
+      <c r="M8" s="7">
         <v>17.1479</v>
       </c>
     </row>
@@ -984,16 +1007,16 @@
       <c r="A9" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="8">
         <v>550.21929999999998</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="7">
         <v>41.878999999999998</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="8">
         <v>34.108400000000003</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="7">
         <v>23.203600000000002</v>
       </c>
       <c r="F9" s="1"/>
@@ -1002,16 +1025,16 @@
       <c r="I9" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="J9" s="8">
+      <c r="J9" s="7">
         <v>328.49810000000002</v>
       </c>
-      <c r="K9" s="9">
+      <c r="K9" s="8">
         <v>46.909799999999997</v>
       </c>
-      <c r="L9" s="8">
+      <c r="L9" s="7">
         <v>27.912099999999999</v>
       </c>
-      <c r="M9" s="9">
+      <c r="M9" s="8">
         <v>22.148700000000002</v>
       </c>
     </row>
@@ -1127,4 +1150,393 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08535FCC-773B-4AF1-A0B1-A016A482A422}">
+  <dimension ref="A1:M14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="9.140625" style="10"/>
+    <col min="5" max="5" width="14.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="14">
+        <v>0.71</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.49</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.44</v>
+      </c>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0.73</v>
+      </c>
+      <c r="K3" s="14">
+        <v>0.54</v>
+      </c>
+      <c r="L3" s="14">
+        <v>0.38</v>
+      </c>
+      <c r="M3" s="2">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.69</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="D4" s="14">
+        <v>0.54</v>
+      </c>
+      <c r="E4" s="14">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0.72</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0.46</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0.34</v>
+      </c>
+      <c r="M4" s="14">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="13"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="13"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="14">
+        <v>380.14</v>
+      </c>
+      <c r="C8" s="2">
+        <v>38.42</v>
+      </c>
+      <c r="D8" s="2">
+        <v>24.74</v>
+      </c>
+      <c r="E8" s="2">
+        <v>24.75</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="J8" s="2">
+        <v>360.64</v>
+      </c>
+      <c r="K8" s="14">
+        <v>44.78</v>
+      </c>
+      <c r="L8" s="14">
+        <v>30.22</v>
+      </c>
+      <c r="M8" s="2">
+        <v>18.29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="2">
+        <v>412.25</v>
+      </c>
+      <c r="C9" s="2">
+        <v>38.729999999999997</v>
+      </c>
+      <c r="D9" s="14">
+        <v>22.62</v>
+      </c>
+      <c r="E9" s="14">
+        <v>19.420000000000002</v>
+      </c>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="J9" s="2">
+        <v>368.27</v>
+      </c>
+      <c r="K9" s="2">
+        <v>52.48</v>
+      </c>
+      <c r="L9" s="2">
+        <v>32.17</v>
+      </c>
+      <c r="M9" s="14">
+        <v>15.85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="I1:M1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>